--- a/data/financial_statements/sofp/MSFT.xlsx
+++ b/data/financial_statements/sofp/MSFT.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -122,9 +242,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -177,12 +294,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -479,4157 +593,4259 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN34"/>
+  <dimension ref="A1:AO34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
+        <v>99508000000</v>
+      </c>
+      <c r="C2">
         <v>107262000000</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>104757000000</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>104693000000</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>125369000000</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>130615000000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>130334000000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>125407000000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>131968000000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>137977000000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>136527000000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>137626000000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>134253000000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>136636000000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>133819000000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>131618000000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>127662000000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>135880000000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>133768000000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>132270000000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>142780000000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>138471000000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>132981000000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>126018000000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>122781000000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>136932000000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>113240000000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>105552000000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>102640000000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>99355000000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>96526000000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>95438000000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>90249000000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>89193000000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>85709000000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>88425000000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>83944000000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>80672000000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>77022000000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>74483000000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B3">
+        <v>35833000000</v>
+      </c>
+      <c r="C3">
         <v>31279000000</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>44261000000</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>32613000000</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>33520000000</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>27349000000</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>38043000000</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>26322000000</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>27312000000</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>22851000000</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>32011000000</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>22699000000</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>23525000000</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>19087000000</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>29524000000</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>19269000000</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>19680000000</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>17390000000</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>26481000000</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>17208000000</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>18428000000</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>14561000000</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>22431000000</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>12882000000</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>14343000000</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>11129000000</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>18277000000</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>12247000000</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>14507000000</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>11444000000</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>17908000000</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>12427000000</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>16186000000</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>12887000000</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>19544000000</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>13497000000</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>15986000000</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>11007000000</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>17486000000</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>11991000000</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B4">
+        <v>2980000000</v>
+      </c>
+      <c r="C4">
         <v>4268000000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>3742000000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>3296000000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>3019000000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>3411000000</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>2636000000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>2245000000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>1924000000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>2705000000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>1895000000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>1644000000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>1823000000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>2622000000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>2063000000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>1951000000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>1961000000</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>3614000000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>2662000000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>2084000000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>2003000000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>3211000000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>2181000000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>1979000000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>1961000000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>3122000000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>2251000000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>2450000000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>2702000000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>3816000000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>2902000000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>2469000000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>2053000000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>3141000000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>2660000000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>1920000000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>1594000000</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>2613000000</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>1938000000</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>2133000000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B5">
+        <v>19502000000</v>
+      </c>
+      <c r="C5">
         <v>18003000000</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>16924000000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>13320000000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>12280000000</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>12951000000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>13393000000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>11640000000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>12769000000</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>13544000000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>11482000000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>8536000000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>7473000000</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>7551000000</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>10146000000</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>7049000000</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>7571000000</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>7311000000</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>6751000000</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>5097000000</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>4422000000</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>4788000000</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>5103000000</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>5434000000</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>5864000000</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>6726000000</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>5892000000</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>6598000000</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>6345000000</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>5594000000</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>5461000000</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>6376000000</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>6173000000</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>5434000000</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>4392000000</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>3740000000</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>4018000000</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>3900000000</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>3388000000</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>3241000000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B6">
+        <v>157823000000</v>
+      </c>
+      <c r="C6">
         <v>160812000000</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>169684000000</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>153922000000</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>174188000000</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>174326000000</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>184406000000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>165614000000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>173973000000</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>177077000000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>181915000000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>170505000000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>167074000000</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>165896000000</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>175552000000</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>159887000000</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>156874000000</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>164195000000</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>169662000000</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>156659000000</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>167633000000</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>161031000000</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>162696000000</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>146313000000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>144949000000</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>157909000000</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>139660000000</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>128421000000</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>127812000000</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>121656000000</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>122797000000</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>118398000000</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>116362000000</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>112439000000</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>114246000000</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>109006000000</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>106870000000</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>99450000000</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>101466000000</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>93524000000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B7">
+        <v>82755000000</v>
+      </c>
+      <c r="C7">
         <v>77037000000</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>74398000000</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>70298000000</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>67214000000</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>63772000000</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>59715000000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>54945000000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>51737000000</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>47927000000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>44151000000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>41221000000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>40522000000</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>38409000000</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>36477000000</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>33648000000</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>32717000000</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>31430000000</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>29460000000</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>27929000000</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>26304000000</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>24809000000</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>23734000000</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>21962000000</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>21379000000</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>19224000000</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>18356000000</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>16831000000</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>15789000000</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>15046000000</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>14731000000</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>14375000000</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>13607000000</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>13229000000</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>13011000000</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>11771000000</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>11567000000</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>10774000000</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>9991000000</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>9204000000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B8">
+        <v>7097000000</v>
+      </c>
+      <c r="C8">
         <v>6839000000</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>6891000000</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>6907000000</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>6994000000</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>6393000000</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>5984000000</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>5395000000</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>3794000000</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>3103000000</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>2965000000</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>2660000000</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>2755000000</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>2684000000</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>2649000000</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>2403000000</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>2274000000</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>2034000000</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>1862000000</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>2818000000</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>3961000000</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>5343000000</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>6023000000</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>7381000000</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>8912000000</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>10486000000</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>10431000000</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>11315000000</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>11514000000</v>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <v>11438000000</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <v>12053000000</v>
       </c>
-      <c r="AF8">
+      <c r="AG8">
         <v>12019000000</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <v>12665000000</v>
       </c>
-      <c r="AH8">
+      <c r="AI8">
         <v>13943000000</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8">
         <v>14597000000</v>
       </c>
-      <c r="AJ8">
+      <c r="AK8">
         <v>14792000000</v>
       </c>
-      <c r="AK8">
+      <c r="AL8">
         <v>14607000000</v>
       </c>
-      <c r="AL8">
+      <c r="AM8">
         <v>11995000000</v>
       </c>
-      <c r="AM8">
+      <c r="AN8">
         <v>10844000000</v>
       </c>
-      <c r="AN8">
+      <c r="AO8">
         <v>11193000000</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B9">
+        <v>78259000000</v>
+      </c>
+      <c r="C9">
         <v>78267000000</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>78822000000</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>78719000000</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>58383000000</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>58249000000</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>57511000000</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>57825000000</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>50774000000</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>50813000000</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>50389000000</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>48919000000</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>49374000000</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>49621000000</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>49776000000</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>49964000000</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>50059000000</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>43434000000</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>43736000000</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>44126000000</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>44389000000</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>44987000000</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>45228000000</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>45215000000</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>45525000000</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>21429000000</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>21605000000</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>22407000000</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>22055000000</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>21887000000</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>21774000000</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>28691000000</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>29154000000</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>26774000000</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>27108000000</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>17652000000</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>17625000000</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>17649000000</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>17738000000</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>17922000000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B10">
+        <v>24994000000</v>
+      </c>
+      <c r="C10">
         <v>23482000000</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>21897000000</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>21845000000</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>21256000000</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>21103000000</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>15075000000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>14427000000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>13561000000</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>13034000000</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>13138000000</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>13696000000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>14630000000</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>14455000000</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>14723000000</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>10258000000</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>10129000000</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>9792000000</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>7442000000</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>7106000000</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>6967000000</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>6083000000</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>6076000000</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>4146000000</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>3845000000</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>3476000000</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>3416000000</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>2895000000</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>2928000000</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>2869000000</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>3117000000</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>3200000000</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>3060000000</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>3271000000</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>3422000000</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>2898000000</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>2874000000</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>2480000000</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>2392000000</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>2262000000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B11">
+        <v>206729000000</v>
+      </c>
+      <c r="C11">
         <v>198972000000</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>195156000000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>190685000000</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>166201000000</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>161092000000</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>149373000000</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>143265000000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>130164000000</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>123924000000</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>119396000000</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>114944000000</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>115720000000</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>113059000000</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>111004000000</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>103394000000</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>101985000000</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>93424000000</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>89186000000</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>88838000000</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>88370000000</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>88066000000</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>87616000000</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>78704000000</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>79661000000</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>54615000000</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>53808000000</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>53448000000</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>52286000000</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>51240000000</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>51675000000</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>58285000000</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>58486000000</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>57217000000</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>58138000000</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>47113000000</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>46673000000</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>42898000000</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>40965000000</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>40581000000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B12">
+        <v>364552000000</v>
+      </c>
+      <c r="C12">
         <v>359784000000</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>364840000000</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>344607000000</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>340389000000</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>335418000000</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>333779000000</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>308879000000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>304137000000</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>301001000000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>301311000000</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>285449000000</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>282794000000</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>278955000000</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>286556000000</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>263281000000</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>258859000000</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>257619000000</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>258848000000</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>245497000000</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>256003000000</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>249097000000</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>250312000000</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>225017000000</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>224610000000</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>212524000000</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>193468000000</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>181869000000</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>180098000000</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>172896000000</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>174472000000</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>176683000000</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>174848000000</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>169656000000</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>172384000000</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>156119000000</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>153543000000</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>142348000000</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>142431000000</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>134105000000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B13">
+        <v>15354000000</v>
+      </c>
+      <c r="C13">
         <v>16609000000</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>19000000000</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>16085000000</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>15314000000</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>14832000000</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>15163000000</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>13412000000</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>12770000000</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>12509000000</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>12530000000</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>9246000000</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>8811000000</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>8574000000</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>9382000000</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>7544000000</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>7563000000</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>8511000000</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>8617000000</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>7623000000</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>7850000000</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>6866000000</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>7390000000</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>6217000000</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>6580000000</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>6296000000</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>6898000000</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>6759000000</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>6936000000</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>6630000000</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>6591000000</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>6690000000</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>6932000000</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>6769000000</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>7432000000</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>4583000000</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>5398000000</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <v>4841000000</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <v>4828000000</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <v>4532000000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B14">
+        <v>9030000000</v>
+      </c>
+      <c r="C14">
         <v>7405000000</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>10661000000</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>9067000000</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>7782000000</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>6894000000</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>10057000000</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>8032000000</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>6838000000</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>5714000000</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>7874000000</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>6254000000</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>5421000000</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>4676000000</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>6830000000</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>5764000000</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>4624000000</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>4271000000</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>6103000000</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>5149000000</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>4427000000</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>4108000000</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>5819000000</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>4604000000</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>3982000000</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>3621000000</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>5264000000</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>4276000000</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>3649000000</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>3450000000</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>5096000000</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>3902000000</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>3479000000</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>3740000000</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>4797000000</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>3887000000</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>3169000000</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>2856000000</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>4117000000</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>3474000000</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B15">
+        <v>3997000000</v>
+      </c>
+      <c r="C15">
         <v>3248000000</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>2749000000</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>1749000000</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>4998000000</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>3249000000</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>8072000000</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>8051000000</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>5387000000</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>6497000000</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>3749000000</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>3748000000</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>6247000000</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>3017000000</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>5516000000</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>6515000000</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>3516000000</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>6497000000</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>3998000000</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>3677000000</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>15912000000</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>9220000000</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>10121000000</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>7786000000</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>25664000000</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>14536000000</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>12904000000</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>5498000000</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>3750000000</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>10748000000</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>7484000000</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>4224000000</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>10048000000</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>5248000000</v>
-      </c>
-      <c r="AI15">
-        <v>2000000000</v>
       </c>
       <c r="AJ15">
         <v>2000000000</v>
       </c>
       <c r="AK15">
+        <v>2000000000</v>
+      </c>
+      <c r="AL15">
         <v>2300000000</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>3300000000</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>2999000000</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>2246000000</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B16">
+        <v>3553000000</v>
+      </c>
+      <c r="C16">
         <v>6729000000</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>4067000000</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>4646000000</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>3731000000</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>6272000000</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>2174000000</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>2165000000</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>1562000000</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>2384000000</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>2130000000</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>3296000000</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>2687000000</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>3440000000</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>5665000000</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>1950000000</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>2033000000</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>2341000000</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>2121000000</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>814000000</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>788000000</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>920000000</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>718000000</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>654000000</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>508000000</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>720000000</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>580000000</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>685000000</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>493000000</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>607000000</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>606000000</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <v>758000000</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>711000000</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>903000000</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>782000000</v>
       </c>
-      <c r="AJ16">
+      <c r="AK16">
         <v>694000000</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <v>591000000</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <v>834000000</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
         <v>592000000</v>
       </c>
-      <c r="AN16">
+      <c r="AO16">
         <v>689000000</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B17">
+        <v>36982000000</v>
+      </c>
+      <c r="C17">
         <v>41340000000</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>45538000000</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>34027000000</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>34001000000</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>38465000000</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>41525000000</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>30083000000</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>30402000000</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>33476000000</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>36000000000</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>27012000000</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>27343000000</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>29904000000</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>32676000000</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>24251000000</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>24285000000</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>26704000000</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>28905000000</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>21370000000</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>21309000000</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>22778000000</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>24013000000</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>26518000000</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>26085000000</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>26304000000</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>27468000000</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>20876000000</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>20929000000</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>21603000000</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>23223000000</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>18232000000</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>19192000000</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>20713000000</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>23150000000</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>17670000000</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <v>17616000000</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <v>18585000000</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <v>20639000000</v>
       </c>
-      <c r="AN17">
+      <c r="AO17">
         <v>16511000000</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B18">
+        <v>12802000000</v>
+      </c>
+      <c r="C18">
         <v>12058000000</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>13067000000</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>11865000000</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>11684000000</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>10816000000</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>11666000000</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>10450000000</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>10527000000</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>9476000000</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>10027000000</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>9151000000</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>9131000000</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>8507000000</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>9351000000</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>7837000000</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>8297000000</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>7953000000</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>8744000000</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>7500000000</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>7787000000</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>7520000000</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>7684000000</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>6025000000</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>6688000000</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>7123000000</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>5949000000</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>5887000000</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>6447000000</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>6207000000</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>6555000000</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>6846000000</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>6623000000</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>7130000000</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>6906000000</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>4275000000</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <v>3920000000</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <v>3625000000</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>3597000000</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>3913000000</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B19">
+        <v>81718000000</v>
+      </c>
+      <c r="C19">
         <v>87389000000</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>95082000000</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>77439000000</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>77510000000</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>80528000000</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>88657000000</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>72193000000</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>67486000000</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>70056000000</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>72310000000</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>58707000000</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>59640000000</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>58118000000</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>69420000000</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>53861000000</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>50318000000</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>56277000000</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>58488000000</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>46133000000</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>58099000000</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>51615000000</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>55745000000</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>52005000000</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>70787000000</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>58810000000</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>59357000000</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>44354000000</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>42643000000</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>49399000000</v>
       </c>
-      <c r="AE19">
+      <c r="AF19">
         <v>49647000000</v>
       </c>
-      <c r="AF19">
+      <c r="AG19">
         <v>40748000000</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>47415000000</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>44694000000</v>
       </c>
-      <c r="AI19">
+      <c r="AJ19">
         <v>45625000000</v>
       </c>
-      <c r="AJ19">
+      <c r="AK19">
         <v>33903000000</v>
       </c>
-      <c r="AK19">
+      <c r="AL19">
         <v>33742000000</v>
       </c>
-      <c r="AL19">
+      <c r="AM19">
         <v>34623000000</v>
       </c>
-      <c r="AM19">
+      <c r="AN19">
         <v>37417000000</v>
       </c>
-      <c r="AN19">
+      <c r="AO19">
         <v>31929000000</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B20">
+        <v>44119000000</v>
+      </c>
+      <c r="C20">
         <v>45374000000</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>47032000000</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>48177000000</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>48260000000</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>50039000000</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>50074000000</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>50007000000</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>55136000000</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>57055000000</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>59578000000</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>62862000000</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>63361000000</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>66478000000</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>66662000000</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>66585000000</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>69653000000</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>69733000000</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>72242000000</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>73480000000</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>73348000000</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>76255000000</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>76073000000</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>76222000000</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>59306000000</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>60154000000</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>40557000000</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>40896000000</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>40679000000</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>27819000000</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>27808000000</v>
       </c>
-      <c r="AF20">
+      <c r="AG20">
         <v>27644000000</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>18260000000</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <v>18472000000</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <v>20645000000</v>
       </c>
-      <c r="AJ20">
+      <c r="AK20">
         <v>20679000000</v>
       </c>
-      <c r="AK20">
+      <c r="AL20">
         <v>20676000000</v>
       </c>
-      <c r="AL20">
+      <c r="AM20">
         <v>12632000000</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <v>12601000000</v>
       </c>
-      <c r="AN20">
+      <c r="AO20">
         <v>11949000000</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B21">
+        <v>2644000000</v>
+      </c>
+      <c r="C21">
         <v>2549000000</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>2870000000</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>2769000000</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>2768000000</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>2550000000</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>2616000000</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>2631000000</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>2985000000</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>2829000000</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>3180000000</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>3385000000</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>3878000000</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>4122000000</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>4530000000</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>3884000000</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>3799000000</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>3538000000</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>3815000000</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>2585000000</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>2500000000</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>2126000000</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>2643000000</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>9215000000</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>8595000000</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>7284000000</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>6441000000</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>5017000000</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>4102000000</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>2784000000</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>2095000000</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>1966000000</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>2051000000</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>1825000000</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>2008000000</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>1842000000</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <v>1858000000</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <v>1629000000</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>1760000000</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>1394000000</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B22">
+        <v>289000000</v>
+      </c>
+      <c r="C22">
         <v>223000000</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>230000000</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>304000000</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>199000000</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>212000000</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>198000000</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>173000000</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>174000000</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>187000000</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>204000000</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>185000000</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>222000000</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>234000000</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>233000000</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>1838000000</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>2062000000</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>1977000000</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>541000000</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>2417000000</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>3186000000</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>5513000000</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>5734000000</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>465000000</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>1133000000</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>1564000000</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>1476000000</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>2674000000</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>2194000000</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>2169000000</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>1295000000</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>2919000000</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>2820000000</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>2714000000</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>2728000000</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>2318000000</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>2377000000</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>2236000000</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>1709000000</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>2424000000</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B23">
+        <v>40648000000</v>
+      </c>
+      <c r="C23">
         <v>39023000000</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>41595000000</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>41637000000</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>40868000000</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>40061000000</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>40617000000</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>40098000000</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>39245000000</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>39729000000</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>40064000000</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>38561000000</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>38412000000</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>37283000000</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>37193000000</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>36277000000</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>35216000000</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>34475000000</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>35476000000</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>35892000000</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>34870000000</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>18173000000</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>17034000000</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>17381000000</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>15980000000</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>14340000000</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>13640000000</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>14122000000</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>13700000000</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>13280000000</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>13544000000</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>13274000000</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>12423000000</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>11781000000</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>11594000000</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>9953000000</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>9790000000</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>9587000000</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>10000000000</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>9721000000</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B24">
+        <v>99698000000</v>
+      </c>
+      <c r="C24">
         <v>98829000000</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>103216000000</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>104244000000</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>102869000000</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>102912000000</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>103134000000</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>102181000000</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>106415000000</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>107553000000</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>110697000000</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>112241000000</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>113045000000</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>114776000000</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>114806000000</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>114556000000</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>116413000000</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>115375000000</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>117642000000</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>120125000000</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>119544000000</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>107835000000</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>106856000000</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>103283000000</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>85014000000</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>83342000000</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>62114000000</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>62709000000</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>60675000000</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>46052000000</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>44742000000</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>45803000000</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>35554000000</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>34792000000</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>36975000000</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>34792000000</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>34701000000</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>26084000000</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>26070000000</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>25488000000</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B25">
+        <v>181416000000</v>
+      </c>
+      <c r="C25">
         <v>186218000000</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>198298000000</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>181683000000</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>180379000000</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>183440000000</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>191791000000</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>174374000000</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>173901000000</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>177609000000</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>183007000000</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>170948000000</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>172685000000</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>172894000000</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>184226000000</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>168417000000</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>166731000000</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>171652000000</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>176130000000</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>166258000000</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>177643000000</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>159450000000</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>162601000000</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>155288000000</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>155801000000</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>142152000000</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>121471000000</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>107063000000</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>103318000000</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>95451000000</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>94389000000</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>86551000000</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>82969000000</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>79486000000</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>82600000000</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>68695000000</v>
       </c>
-      <c r="AK25">
+      <c r="AL25">
         <v>68443000000</v>
       </c>
-      <c r="AL25">
+      <c r="AM25">
         <v>60707000000</v>
       </c>
-      <c r="AM25">
+      <c r="AN25">
         <v>63487000000</v>
       </c>
-      <c r="AN25">
+      <c r="AO25">
         <v>57417000000</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B26">
+        <v>90225000000</v>
+      </c>
+      <c r="C26">
         <v>88535000000</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>86939000000</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>85767000000</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>84528000000</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>83751000000</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>83111000000</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>82308000000</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>81896000000</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>81089000000</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>80552000000</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>79813000000</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>79625000000</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>78882000000</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>78520000000</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>77791000000</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>77556000000</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>71303000000</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>71223000000</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>70418000000</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>70192000000</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>69419000000</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>69315000000</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>68554000000</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>68177000000</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>67747000000</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>68178000000</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>68012000000</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>68279000000</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>68093000000</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>68465000000</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>68475000000</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>68765000000</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>68362000000</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>68366000000</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>67803000000</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>67476000000</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>67230000000</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>67306000000</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>66826000000</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B27">
+        <v>99368000000</v>
+      </c>
+      <c r="C27">
         <v>92374000000</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>84281000000</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>79633000000</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>75045000000</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>66944000000</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>57055000000</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>50735000000</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>44973000000</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>39193000000</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>34566000000</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>32012000000</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>30739000000</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>27240000000</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>24150000000</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>18338000000</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>16585000000</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>17279000000</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>13682000000</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>9974000000</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>8567000000</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>19702000000</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>17769000000</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>531000000</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>120000000</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>944000000</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>2282000000</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>4954000000</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>6728000000</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>7614000000</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>9096000000</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>18186000000</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>19731000000</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>18051000000</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>17710000000</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>16289000000</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>14347000000</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>11680000000</v>
       </c>
-      <c r="AM27">
+      <c r="AN27">
         <v>9895000000</v>
       </c>
-      <c r="AN27">
+      <c r="AO27">
         <v>7657000000</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B28">
+        <v>183136000000</v>
+      </c>
+      <c r="C28">
         <v>173566000000</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>166542000000</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>162924000000</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>160010000000</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>151978000000</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>141988000000</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>134505000000</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>130236000000</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>123392000000</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>118304000000</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>114501000000</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>110109000000</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>106061000000</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>102330000000</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>94864000000</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>92128000000</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>85967000000</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>82718000000</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>79239000000</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>78360000000</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>89647000000</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>87711000000</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>69729000000</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>68809000000</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>70372000000</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>71997000000</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>74806000000</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>76780000000</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>77445000000</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>80083000000</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>90132000000</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>91879000000</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>90170000000</v>
       </c>
-      <c r="AI28">
+      <c r="AJ28">
         <v>89784000000</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28">
         <v>87424000000</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>85100000000</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <v>81641000000</v>
       </c>
-      <c r="AM28">
+      <c r="AN28">
         <v>78944000000</v>
       </c>
-      <c r="AN28">
+      <c r="AO28">
         <v>76688000000</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B29">
+        <v>183136000000</v>
+      </c>
+      <c r="C29">
         <v>173566000000</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>166542000000</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>162924000000</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>160010000000</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>151978000000</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>141988000000</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>134505000000</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>130236000000</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>123392000000</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>118304000000</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>114501000000</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>110109000000</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>106061000000</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>102330000000</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>94864000000</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>92128000000</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>85967000000</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>82718000000</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>79239000000</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>78360000000</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>89647000000</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>87711000000</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>69729000000</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>68809000000</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>70372000000</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>71997000000</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>74806000000</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>76780000000</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>77445000000</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>80083000000</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>90132000000</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>91879000000</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>90170000000</v>
       </c>
-      <c r="AI29">
+      <c r="AJ29">
         <v>89784000000</v>
       </c>
-      <c r="AJ29">
+      <c r="AK29">
         <v>87424000000</v>
       </c>
-      <c r="AK29">
+      <c r="AL29">
         <v>85100000000</v>
       </c>
-      <c r="AL29">
+      <c r="AM29">
         <v>81641000000</v>
       </c>
-      <c r="AM29">
+      <c r="AN29">
         <v>78944000000</v>
       </c>
-      <c r="AN29">
+      <c r="AO29">
         <v>76688000000</v>
       </c>
     </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+    <row r="30" spans="1:41">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B30">
+        <v>364552000000</v>
+      </c>
+      <c r="C30">
         <v>359784000000</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>364840000000</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>344607000000</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>340389000000</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>335418000000</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>333779000000</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>308879000000</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>304137000000</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>301001000000</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>301311000000</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>285449000000</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>282794000000</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>278955000000</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>286556000000</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>263281000000</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>258859000000</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>257619000000</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>258848000000</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>245497000000</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>256003000000</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>249097000000</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>250312000000</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>225017000000</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>224610000000</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>212524000000</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>193468000000</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>181869000000</v>
       </c>
-      <c r="AC30">
+      <c r="AD30">
         <v>180098000000</v>
       </c>
-      <c r="AD30">
+      <c r="AE30">
         <v>172896000000</v>
       </c>
-      <c r="AE30">
+      <c r="AF30">
         <v>174472000000</v>
       </c>
-      <c r="AF30">
+      <c r="AG30">
         <v>176683000000</v>
       </c>
-      <c r="AG30">
+      <c r="AH30">
         <v>174848000000</v>
       </c>
-      <c r="AH30">
+      <c r="AI30">
         <v>169656000000</v>
       </c>
-      <c r="AI30">
+      <c r="AJ30">
         <v>172384000000</v>
       </c>
-      <c r="AJ30">
+      <c r="AK30">
         <v>156119000000</v>
       </c>
-      <c r="AK30">
+      <c r="AL30">
         <v>153543000000</v>
       </c>
-      <c r="AL30">
+      <c r="AM30">
         <v>142348000000</v>
       </c>
-      <c r="AM30">
+      <c r="AN30">
         <v>142431000000</v>
       </c>
-      <c r="AN30">
+      <c r="AO30">
         <v>134105000000</v>
       </c>
     </row>
-    <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+    <row r="31" spans="1:41">
+      <c r="A31" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B31">
+        <v>7447000000</v>
+      </c>
+      <c r="C31">
         <v>7457000000</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>7464000000</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>7483000000</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>7500000000</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>7510000000</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>7519000000</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>7534000000</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>7546000000</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>7564000000</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>7571000000</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>7590000000</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>7611000000</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>7634000000</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>7643000000</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>7666000000</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>7683000000</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>7680000000</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>7677000000</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>7690000000</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>7705000000</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>7720000000</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>7708000000</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>7723000000</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>7730000000</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <v>7784000000</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <v>7808000000</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <v>7870000000</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>7925000000</v>
       </c>
-      <c r="AD31">
+      <c r="AE31">
         <v>7986000000</v>
       </c>
-      <c r="AE31">
+      <c r="AF31">
         <v>8027000000</v>
       </c>
-      <c r="AF31">
+      <c r="AG31">
         <v>8113000000</v>
       </c>
-      <c r="AG31">
+      <c r="AH31">
         <v>8218000000</v>
       </c>
-      <c r="AH31">
+      <c r="AI31">
         <v>8255000000</v>
       </c>
-      <c r="AI31">
+      <c r="AJ31">
         <v>8239000000</v>
       </c>
-      <c r="AJ31">
+      <c r="AK31">
         <v>8260000000</v>
       </c>
-      <c r="AK31">
+      <c r="AL31">
         <v>8300000000</v>
       </c>
-      <c r="AL31">
+      <c r="AM31">
         <v>8346000000</v>
       </c>
-      <c r="AM31">
+      <c r="AN31">
         <v>8328000000</v>
       </c>
-      <c r="AN31">
+      <c r="AO31">
         <v>8349000000</v>
       </c>
     </row>
-    <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+    <row r="32" spans="1:41">
+      <c r="A32" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B32">
+        <v>104877000000</v>
+      </c>
+      <c r="C32">
         <v>95299000000</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>87720000000</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>84205000000</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>101627000000</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>93729000000</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>84477000000</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>76680000000</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>79462000000</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>72579000000</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>67915000000</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>65582000000</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>60735000000</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>56440000000</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>52554000000</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>44900000000</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>42069000000</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <v>42533000000</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>38982000000</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <v>35113000000</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>33971000000</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>44660000000</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>42483000000</v>
       </c>
-      <c r="X32">
+      <c r="Y32">
         <v>24514000000</v>
       </c>
-      <c r="Y32">
+      <c r="Z32">
         <v>23284000000</v>
       </c>
-      <c r="Z32">
+      <c r="AA32">
         <v>48943000000</v>
       </c>
-      <c r="AA32">
+      <c r="AB32">
         <v>50392000000</v>
       </c>
-      <c r="AB32">
+      <c r="AC32">
         <v>52399000000</v>
       </c>
-      <c r="AC32">
+      <c r="AD32">
         <v>54725000000</v>
       </c>
-      <c r="AD32">
+      <c r="AE32">
         <v>55558000000</v>
       </c>
-      <c r="AE32">
+      <c r="AF32">
         <v>58309000000</v>
       </c>
-      <c r="AF32">
+      <c r="AG32">
         <v>61441000000</v>
       </c>
-      <c r="AG32">
+      <c r="AH32">
         <v>62725000000</v>
       </c>
-      <c r="AH32">
+      <c r="AI32">
         <v>63396000000</v>
       </c>
-      <c r="AI32">
+      <c r="AJ32">
         <v>62676000000</v>
       </c>
-      <c r="AJ32">
+      <c r="AK32">
         <v>69772000000</v>
       </c>
-      <c r="AK32">
+      <c r="AL32">
         <v>67475000000</v>
       </c>
-      <c r="AL32">
+      <c r="AM32">
         <v>63992000000</v>
       </c>
-      <c r="AM32">
+      <c r="AN32">
         <v>61206000000</v>
       </c>
-      <c r="AN32">
+      <c r="AO32">
         <v>58766000000</v>
       </c>
     </row>
-    <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+    <row r="33" spans="1:41">
+      <c r="A33" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B33">
+        <v>-51392000000</v>
+      </c>
+      <c r="C33">
         <v>-58640000000</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>-54976000000</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>-54767000000</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>-72111000000</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>-77327000000</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>-72188000000</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>-67349000000</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>-71445000000</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>-74425000000</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>-73200000000</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>-71016000000</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>-64645000000</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>-67141000000</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>-61641000000</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <v>-58518000000</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <v>-54493000000</v>
       </c>
-      <c r="R33">
+      <c r="S33">
         <v>-59650000000</v>
       </c>
-      <c r="S33">
+      <c r="T33">
         <v>-57528000000</v>
       </c>
-      <c r="T33">
+      <c r="U33">
         <v>-55113000000</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <v>-53520000000</v>
       </c>
-      <c r="V33">
+      <c r="W33">
         <v>-52996000000</v>
       </c>
-      <c r="W33">
+      <c r="X33">
         <v>-46787000000</v>
       </c>
-      <c r="X33">
+      <c r="Y33">
         <v>-42010000000</v>
       </c>
-      <c r="Y33">
+      <c r="Z33">
         <v>-37811000000</v>
       </c>
-      <c r="Z33">
+      <c r="AA33">
         <v>-62242000000</v>
       </c>
-      <c r="AA33">
+      <c r="AB33">
         <v>-59779000000</v>
       </c>
-      <c r="AB33">
+      <c r="AC33">
         <v>-59158000000</v>
       </c>
-      <c r="AC33">
+      <c r="AD33">
         <v>-58211000000</v>
       </c>
-      <c r="AD33">
+      <c r="AE33">
         <v>-60788000000</v>
       </c>
-      <c r="AE33">
+      <c r="AF33">
         <v>-61234000000</v>
       </c>
-      <c r="AF33">
+      <c r="AG33">
         <v>-63570000000</v>
       </c>
-      <c r="AG33">
+      <c r="AH33">
         <v>-61941000000</v>
       </c>
-      <c r="AH33">
+      <c r="AI33">
         <v>-65473000000</v>
       </c>
-      <c r="AI33">
+      <c r="AJ33">
         <v>-63064000000</v>
       </c>
-      <c r="AJ33">
+      <c r="AK33">
         <v>-65746000000</v>
       </c>
-      <c r="AK33">
+      <c r="AL33">
         <v>-60968000000</v>
       </c>
-      <c r="AL33">
+      <c r="AM33">
         <v>-64740000000</v>
       </c>
-      <c r="AM33">
+      <c r="AN33">
         <v>-61422000000</v>
       </c>
-      <c r="AN33">
+      <c r="AO33">
         <v>-60288000000</v>
       </c>
     </row>
-    <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+    <row r="34" spans="1:41">
+      <c r="A34" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B34">
+        <v>48116000000</v>
+      </c>
+      <c r="C34">
         <v>48622000000</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>49781000000</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>49926000000</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>53258000000</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>53288000000</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>58146000000</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>58058000000</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>60523000000</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>63552000000</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>63327000000</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>66610000000</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>69608000000</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <v>69495000000</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>72178000000</v>
       </c>
-      <c r="P34">
+      <c r="Q34">
         <v>73100000000</v>
       </c>
-      <c r="Q34">
+      <c r="R34">
         <v>73169000000</v>
       </c>
-      <c r="R34">
+      <c r="S34">
         <v>76230000000</v>
       </c>
-      <c r="S34">
+      <c r="T34">
         <v>76240000000</v>
       </c>
-      <c r="T34">
+      <c r="U34">
         <v>77157000000</v>
       </c>
-      <c r="U34">
+      <c r="V34">
         <v>89260000000</v>
       </c>
-      <c r="V34">
+      <c r="W34">
         <v>85475000000</v>
       </c>
-      <c r="W34">
+      <c r="X34">
         <v>86194000000</v>
       </c>
-      <c r="X34">
+      <c r="Y34">
         <v>84008000000</v>
       </c>
-      <c r="Y34">
+      <c r="Z34">
         <v>84970000000</v>
       </c>
-      <c r="Z34">
+      <c r="AA34">
         <v>74690000000</v>
       </c>
-      <c r="AA34">
+      <c r="AB34">
         <v>53461000000</v>
       </c>
-      <c r="AB34">
+      <c r="AC34">
         <v>46394000000</v>
       </c>
-      <c r="AC34">
+      <c r="AD34">
         <v>44429000000</v>
       </c>
-      <c r="AD34">
+      <c r="AE34">
         <v>38567000000</v>
       </c>
-      <c r="AE34">
+      <c r="AF34">
         <v>35292000000</v>
       </c>
-      <c r="AF34">
+      <c r="AG34">
         <v>31868000000</v>
       </c>
-      <c r="AG34">
+      <c r="AH34">
         <v>28308000000</v>
       </c>
-      <c r="AH34">
+      <c r="AI34">
         <v>23720000000</v>
       </c>
-      <c r="AI34">
+      <c r="AJ34">
         <v>22645000000</v>
       </c>
-      <c r="AJ34">
+      <c r="AK34">
         <v>22679000000</v>
       </c>
-      <c r="AK34">
+      <c r="AL34">
         <v>22976000000</v>
       </c>
-      <c r="AL34">
+      <c r="AM34">
         <v>15932000000</v>
       </c>
-      <c r="AM34">
+      <c r="AN34">
         <v>15600000000</v>
       </c>
-      <c r="AN34">
+      <c r="AO34">
         <v>14195000000</v>
       </c>
     </row>
